--- a/Teams/Aston Villa_stats.xlsx
+++ b/Teams/Aston Villa_stats.xlsx
@@ -8,15 +8,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Matches" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="StandardStats" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ShootingStats" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PassingStats" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PassTypes" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GoalShotCreation" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DefensiveActions" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Standard Stats" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Shooting Stats" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Passing Stats" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Pass Types" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Goal &amp; Shot Creation" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Defensive Actions" sheetId="7" state="visible" r:id="rId7"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Possession" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PlayingTime" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MiscStats" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Playing Time" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Miscellaneous Stats" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5376,7 +5376,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>27-317</t>
+          <t>27-318</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -5457,7 +5457,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>32-199</t>
+          <t>32-200</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -5538,7 +5538,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>22-237</t>
+          <t>22-238</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -5619,7 +5619,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>27-148</t>
+          <t>27-149</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -5700,7 +5700,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>31-243</t>
+          <t>31-244</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -5781,7 +5781,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>29-080</t>
+          <t>29-081</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -5862,7 +5862,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>30-153</t>
+          <t>30-154</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -5943,7 +5943,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>28-063</t>
+          <t>28-064</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -6024,7 +6024,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>27-225</t>
+          <t>27-226</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -6105,7 +6105,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>23-296</t>
+          <t>23-297</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -6186,7 +6186,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>27-223</t>
+          <t>27-224</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -6267,7 +6267,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>23-216</t>
+          <t>23-217</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -6348,7 +6348,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>25-117</t>
+          <t>25-118</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -6429,7 +6429,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>32-005</t>
+          <t>32-006</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -6510,7 +6510,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>32-007</t>
+          <t>32-008</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -6591,7 +6591,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>21-074</t>
+          <t>21-075</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -6672,7 +6672,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>21-097</t>
+          <t>21-098</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -6753,7 +6753,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>23-010</t>
+          <t>23-011</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -6834,7 +6834,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>27-009</t>
+          <t>27-010</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -6915,7 +6915,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>22-041</t>
+          <t>22-042</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -6996,7 +6996,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>31-105</t>
+          <t>31-106</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -7077,7 +7077,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>23-040</t>
+          <t>23-041</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -7158,7 +7158,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>29-058</t>
+          <t>29-059</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -7237,7 +7237,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>27-140</t>
+          <t>27-141</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -7318,7 +7318,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>35-071</t>
+          <t>35-072</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -7397,7 +7397,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>26-070</t>
+          <t>26-071</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -7478,7 +7478,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>19-094</t>
+          <t>19-095</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -7559,7 +7559,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>28-085</t>
+          <t>28-086</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -8051,7 +8051,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>27-317</t>
+          <t>27-318</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -8168,7 +8168,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>32-199</t>
+          <t>32-200</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -8285,7 +8285,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>22-237</t>
+          <t>22-238</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -8402,7 +8402,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>27-148</t>
+          <t>27-149</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -8519,7 +8519,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>31-243</t>
+          <t>31-244</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -8636,7 +8636,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>29-080</t>
+          <t>29-081</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -8753,7 +8753,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>30-153</t>
+          <t>30-154</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -8870,7 +8870,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>28-063</t>
+          <t>28-064</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -8987,7 +8987,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>27-225</t>
+          <t>27-226</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -9104,7 +9104,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>23-296</t>
+          <t>23-297</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -9221,7 +9221,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>27-223</t>
+          <t>27-224</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -9338,7 +9338,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>23-216</t>
+          <t>23-217</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -9455,7 +9455,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>25-117</t>
+          <t>25-118</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -9572,7 +9572,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>32-005</t>
+          <t>32-006</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -9689,7 +9689,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>32-007</t>
+          <t>32-008</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -9806,7 +9806,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>21-074</t>
+          <t>21-075</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -9923,7 +9923,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>21-097</t>
+          <t>21-098</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -10040,7 +10040,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>23-010</t>
+          <t>23-011</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -10157,7 +10157,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>27-009</t>
+          <t>27-010</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -10274,7 +10274,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>22-041</t>
+          <t>22-042</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -10391,7 +10391,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>31-105</t>
+          <t>31-106</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -10508,7 +10508,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>23-040</t>
+          <t>23-041</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -10625,7 +10625,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>29-058</t>
+          <t>29-059</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -10742,7 +10742,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>27-140</t>
+          <t>27-141</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -10859,7 +10859,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>35-071</t>
+          <t>35-072</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -10976,7 +10976,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>26-070</t>
+          <t>26-071</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -11093,7 +11093,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>19-094</t>
+          <t>19-095</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -11210,7 +11210,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>28-085</t>
+          <t>28-086</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -11327,7 +11327,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>18-050</t>
+          <t>18-051</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -11390,7 +11390,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>24-259</t>
+          <t>24-260</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -11453,7 +11453,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>18-169</t>
+          <t>18-170</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -11516,7 +11516,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>21-073</t>
+          <t>21-074</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -11579,7 +11579,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>19-060</t>
+          <t>19-061</t>
         </is>
       </c>
       <c r="F36" t="n">
@@ -11642,7 +11642,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>20-265</t>
+          <t>20-266</t>
         </is>
       </c>
       <c r="F37" t="n">
@@ -12117,7 +12117,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>27-317</t>
+          <t>27-318</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -12201,7 +12201,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>32-199</t>
+          <t>32-200</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -12275,7 +12275,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>22-237</t>
+          <t>22-238</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -12359,7 +12359,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>27-148</t>
+          <t>27-149</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -12443,7 +12443,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>31-243</t>
+          <t>31-244</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -12527,7 +12527,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>29-080</t>
+          <t>29-081</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -12611,7 +12611,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>30-153</t>
+          <t>30-154</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -12695,7 +12695,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>28-063</t>
+          <t>28-064</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -12779,7 +12779,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>27-225</t>
+          <t>27-226</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -12863,7 +12863,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>23-296</t>
+          <t>23-297</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -12947,7 +12947,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>27-223</t>
+          <t>27-224</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -13031,7 +13031,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>23-216</t>
+          <t>23-217</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -13115,7 +13115,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>25-117</t>
+          <t>25-118</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -13199,7 +13199,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>32-005</t>
+          <t>32-006</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -13283,7 +13283,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>32-007</t>
+          <t>32-008</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -13367,7 +13367,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>21-074</t>
+          <t>21-075</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -13451,7 +13451,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>21-097</t>
+          <t>21-098</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -13535,7 +13535,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>23-010</t>
+          <t>23-011</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -13619,7 +13619,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>27-009</t>
+          <t>27-010</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -13701,7 +13701,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>22-041</t>
+          <t>22-042</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -13783,7 +13783,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>31-105</t>
+          <t>31-106</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -13867,7 +13867,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>23-040</t>
+          <t>23-041</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -13949,7 +13949,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>29-058</t>
+          <t>29-059</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -14033,7 +14033,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>27-140</t>
+          <t>27-141</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -14117,7 +14117,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>35-071</t>
+          <t>35-072</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -14191,7 +14191,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>26-070</t>
+          <t>26-071</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -14275,7 +14275,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>19-094</t>
+          <t>19-095</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -14349,7 +14349,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>28-085</t>
+          <t>28-086</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -14850,7 +14850,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>27-317</t>
+          <t>27-318</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -14952,7 +14952,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>32-199</t>
+          <t>32-200</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -15054,7 +15054,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>22-237</t>
+          <t>22-238</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -15156,7 +15156,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>27-148</t>
+          <t>27-149</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -15258,7 +15258,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>31-243</t>
+          <t>31-244</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -15360,7 +15360,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>29-080</t>
+          <t>29-081</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -15462,7 +15462,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>30-153</t>
+          <t>30-154</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -15564,7 +15564,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>28-063</t>
+          <t>28-064</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -15666,7 +15666,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>27-225</t>
+          <t>27-226</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -15768,7 +15768,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>23-296</t>
+          <t>23-297</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -15870,7 +15870,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>27-223</t>
+          <t>27-224</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -15972,7 +15972,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>23-216</t>
+          <t>23-217</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -16074,7 +16074,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>25-117</t>
+          <t>25-118</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -16176,7 +16176,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>32-005</t>
+          <t>32-006</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -16278,7 +16278,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>32-007</t>
+          <t>32-008</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -16380,7 +16380,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>21-074</t>
+          <t>21-075</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -16482,7 +16482,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>21-097</t>
+          <t>21-098</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -16584,7 +16584,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>23-010</t>
+          <t>23-011</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -16686,7 +16686,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>27-009</t>
+          <t>27-010</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -16788,7 +16788,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>22-041</t>
+          <t>22-042</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -16890,7 +16890,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>31-105</t>
+          <t>31-106</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -16992,7 +16992,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>23-040</t>
+          <t>23-041</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -17094,7 +17094,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>29-058</t>
+          <t>29-059</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -17196,7 +17196,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>27-140</t>
+          <t>27-141</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -17298,7 +17298,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>35-071</t>
+          <t>35-072</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -17400,7 +17400,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>26-070</t>
+          <t>26-071</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -17502,7 +17502,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>19-094</t>
+          <t>19-095</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -17604,7 +17604,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>28-085</t>
+          <t>28-086</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -18084,7 +18084,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>27-317</t>
+          <t>27-318</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -18162,7 +18162,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>32-199</t>
+          <t>32-200</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -18240,7 +18240,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>22-237</t>
+          <t>22-238</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -18318,7 +18318,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>27-148</t>
+          <t>27-149</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -18396,7 +18396,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>31-243</t>
+          <t>31-244</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -18474,7 +18474,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>29-080</t>
+          <t>29-081</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -18552,7 +18552,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>30-153</t>
+          <t>30-154</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -18630,7 +18630,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>28-063</t>
+          <t>28-064</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -18708,7 +18708,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>27-225</t>
+          <t>27-226</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -18786,7 +18786,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>23-296</t>
+          <t>23-297</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -18864,7 +18864,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>27-223</t>
+          <t>27-224</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -18942,7 +18942,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>23-216</t>
+          <t>23-217</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -19020,7 +19020,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>25-117</t>
+          <t>25-118</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -19098,7 +19098,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>32-005</t>
+          <t>32-006</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -19176,7 +19176,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>32-007</t>
+          <t>32-008</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -19254,7 +19254,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>21-074</t>
+          <t>21-075</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -19332,7 +19332,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>21-097</t>
+          <t>21-098</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -19410,7 +19410,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>23-010</t>
+          <t>23-011</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -19488,7 +19488,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>27-009</t>
+          <t>27-010</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -19566,7 +19566,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>22-041</t>
+          <t>22-042</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -19644,7 +19644,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>31-105</t>
+          <t>31-106</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -19722,7 +19722,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>23-040</t>
+          <t>23-041</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -19800,7 +19800,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>29-058</t>
+          <t>29-059</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -19878,7 +19878,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>27-140</t>
+          <t>27-141</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -19956,7 +19956,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>35-071</t>
+          <t>35-072</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -20034,7 +20034,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>26-070</t>
+          <t>26-071</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -20112,7 +20112,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>19-094</t>
+          <t>19-095</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -20190,7 +20190,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>28-085</t>
+          <t>28-086</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -20602,7 +20602,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>27-317</t>
+          <t>27-318</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -20683,7 +20683,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>32-199</t>
+          <t>32-200</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -20764,7 +20764,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>22-237</t>
+          <t>22-238</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -20845,7 +20845,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>27-148</t>
+          <t>27-149</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -20926,7 +20926,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>31-243</t>
+          <t>31-244</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -21007,7 +21007,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>29-080</t>
+          <t>29-081</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -21088,7 +21088,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>30-153</t>
+          <t>30-154</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -21169,7 +21169,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>28-063</t>
+          <t>28-064</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -21250,7 +21250,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>27-225</t>
+          <t>27-226</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -21331,7 +21331,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>23-296</t>
+          <t>23-297</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -21412,7 +21412,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>27-223</t>
+          <t>27-224</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -21493,7 +21493,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>23-216</t>
+          <t>23-217</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -21574,7 +21574,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>25-117</t>
+          <t>25-118</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -21655,7 +21655,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>32-005</t>
+          <t>32-006</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -21736,7 +21736,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>32-007</t>
+          <t>32-008</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -21817,7 +21817,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>21-074</t>
+          <t>21-075</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -21898,7 +21898,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>21-097</t>
+          <t>21-098</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -21979,7 +21979,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>23-010</t>
+          <t>23-011</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -22060,7 +22060,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>27-009</t>
+          <t>27-010</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -22141,7 +22141,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>22-041</t>
+          <t>22-042</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -22222,7 +22222,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>31-105</t>
+          <t>31-106</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -22303,7 +22303,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>23-040</t>
+          <t>23-041</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -22384,7 +22384,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>29-058</t>
+          <t>29-059</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -22465,7 +22465,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>27-140</t>
+          <t>27-141</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -22546,7 +22546,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>35-071</t>
+          <t>35-072</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -22627,7 +22627,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>26-070</t>
+          <t>26-071</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -22708,7 +22708,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>19-094</t>
+          <t>19-095</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -22789,7 +22789,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>28-085</t>
+          <t>28-086</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -23223,7 +23223,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>27-317</t>
+          <t>27-318</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -23304,7 +23304,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>32-199</t>
+          <t>32-200</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -23385,7 +23385,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>22-237</t>
+          <t>22-238</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -23466,7 +23466,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>27-148</t>
+          <t>27-149</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -23547,7 +23547,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>31-243</t>
+          <t>31-244</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -23628,7 +23628,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>29-080</t>
+          <t>29-081</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -23709,7 +23709,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>30-153</t>
+          <t>30-154</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -23790,7 +23790,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>28-063</t>
+          <t>28-064</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -23871,7 +23871,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>27-225</t>
+          <t>27-226</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -23952,7 +23952,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>23-296</t>
+          <t>23-297</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -24033,7 +24033,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>27-223</t>
+          <t>27-224</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -24114,7 +24114,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>23-216</t>
+          <t>23-217</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -24195,7 +24195,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>25-117</t>
+          <t>25-118</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -24276,7 +24276,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>32-005</t>
+          <t>32-006</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -24357,7 +24357,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>32-007</t>
+          <t>32-008</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -24438,7 +24438,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>21-074</t>
+          <t>21-075</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -24519,7 +24519,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>21-097</t>
+          <t>21-098</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -24600,7 +24600,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>23-010</t>
+          <t>23-011</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -24681,7 +24681,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>27-009</t>
+          <t>27-010</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -24762,7 +24762,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>22-041</t>
+          <t>22-042</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -24843,7 +24843,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>31-105</t>
+          <t>31-106</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -24924,7 +24924,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>23-040</t>
+          <t>23-041</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -25005,7 +25005,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>29-058</t>
+          <t>29-059</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -25086,7 +25086,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>27-140</t>
+          <t>27-141</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -25167,7 +25167,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>35-071</t>
+          <t>35-072</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -25248,7 +25248,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>26-070</t>
+          <t>26-071</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -25329,7 +25329,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>19-094</t>
+          <t>19-095</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -25410,7 +25410,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>28-085</t>
+          <t>28-086</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -25867,7 +25867,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>27-317</t>
+          <t>27-318</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -25966,7 +25966,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>32-199</t>
+          <t>32-200</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -26065,7 +26065,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>22-237</t>
+          <t>22-238</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -26164,7 +26164,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>27-148</t>
+          <t>27-149</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -26263,7 +26263,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>31-243</t>
+          <t>31-244</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -26362,7 +26362,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>29-080</t>
+          <t>29-081</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -26461,7 +26461,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>30-153</t>
+          <t>30-154</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -26560,7 +26560,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>28-063</t>
+          <t>28-064</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -26659,7 +26659,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>27-225</t>
+          <t>27-226</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -26758,7 +26758,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>23-296</t>
+          <t>23-297</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -26857,7 +26857,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>27-223</t>
+          <t>27-224</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -26956,7 +26956,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>23-216</t>
+          <t>23-217</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -27055,7 +27055,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>25-117</t>
+          <t>25-118</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -27154,7 +27154,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>32-005</t>
+          <t>32-006</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -27253,7 +27253,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>32-007</t>
+          <t>32-008</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -27352,7 +27352,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>21-074</t>
+          <t>21-075</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -27451,7 +27451,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>21-097</t>
+          <t>21-098</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -27550,7 +27550,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>23-010</t>
+          <t>23-011</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -27649,7 +27649,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>27-009</t>
+          <t>27-010</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -27748,7 +27748,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>22-041</t>
+          <t>22-042</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -27847,7 +27847,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>31-105</t>
+          <t>31-106</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -27946,7 +27946,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>23-040</t>
+          <t>23-041</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -28045,7 +28045,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>29-058</t>
+          <t>29-059</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -28144,7 +28144,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>27-140</t>
+          <t>27-141</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -28243,7 +28243,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>35-071</t>
+          <t>35-072</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -28338,7 +28338,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>26-070</t>
+          <t>26-071</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -28437,7 +28437,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>19-094</t>
+          <t>19-095</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -28536,7 +28536,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>28-085</t>
+          <t>28-086</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -29084,7 +29084,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>27-317</t>
+          <t>27-318</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -29201,7 +29201,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>32-199</t>
+          <t>32-200</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -29318,7 +29318,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>22-237</t>
+          <t>22-238</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -29435,7 +29435,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>27-148</t>
+          <t>27-149</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -29552,7 +29552,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>31-243</t>
+          <t>31-244</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -29669,7 +29669,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>29-080</t>
+          <t>29-081</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -29786,7 +29786,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>30-153</t>
+          <t>30-154</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -29903,7 +29903,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>28-063</t>
+          <t>28-064</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -30020,7 +30020,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>27-225</t>
+          <t>27-226</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -30137,7 +30137,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>23-296</t>
+          <t>23-297</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -30254,7 +30254,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>27-223</t>
+          <t>27-224</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -30371,7 +30371,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>23-216</t>
+          <t>23-217</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -30488,7 +30488,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>25-117</t>
+          <t>25-118</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -30605,7 +30605,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>32-005</t>
+          <t>32-006</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -30722,7 +30722,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>32-007</t>
+          <t>32-008</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -30839,7 +30839,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>21-074</t>
+          <t>21-075</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -30956,7 +30956,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>21-097</t>
+          <t>21-098</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -31073,7 +31073,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>23-010</t>
+          <t>23-011</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -31190,7 +31190,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>27-009</t>
+          <t>27-010</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -31307,7 +31307,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>22-041</t>
+          <t>22-042</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -31424,7 +31424,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>31-105</t>
+          <t>31-106</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -31541,7 +31541,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>23-040</t>
+          <t>23-041</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -31658,7 +31658,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>29-058</t>
+          <t>29-059</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -31775,7 +31775,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>27-140</t>
+          <t>27-141</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -31892,7 +31892,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>35-071</t>
+          <t>35-072</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -32009,7 +32009,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>26-070</t>
+          <t>26-071</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -32126,7 +32126,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>19-094</t>
+          <t>19-095</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -32243,7 +32243,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>28-085</t>
+          <t>28-086</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -32360,7 +32360,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>18-050</t>
+          <t>18-051</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -32423,7 +32423,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>24-259</t>
+          <t>24-260</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -32486,7 +32486,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>18-169</t>
+          <t>18-170</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -32549,7 +32549,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>21-073</t>
+          <t>21-074</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -32612,7 +32612,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>19-060</t>
+          <t>19-061</t>
         </is>
       </c>
       <c r="F36" t="n">
@@ -32675,7 +32675,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>20-265</t>
+          <t>20-266</t>
         </is>
       </c>
       <c r="F37" t="n">

--- a/Teams/Aston Villa_stats.xlsx
+++ b/Teams/Aston Villa_stats.xlsx
@@ -7,16 +7,16 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Matches" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Standard Stats" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Shooting Stats" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Passing Stats" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Pass Types" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Goal &amp; Shot Creation" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Defensive Actions" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Possession" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Playing Time" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Miscellaneous Stats" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Standard Stats" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Shooting Stats" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Passing Stats" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Pass Types" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Goal &amp; Shot Creation" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Defensive Actions" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Possession" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Playing Time" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Miscellaneous Stats" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet_9" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4378,7 +4378,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -4736,7 +4736,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>27-321</t>
+          <t>27-324</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -4807,7 +4807,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>32-203</t>
+          <t>32-206</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -4878,7 +4878,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>22-241</t>
+          <t>22-244</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -4949,7 +4949,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>27-152</t>
+          <t>27-155</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -5020,7 +5020,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>31-247</t>
+          <t>31-250</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -5091,7 +5091,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>29-084</t>
+          <t>29-087</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -5162,7 +5162,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>30-157</t>
+          <t>30-160</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -5233,7 +5233,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>28-067</t>
+          <t>28-070</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -5304,7 +5304,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>27-229</t>
+          <t>27-232</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -5375,7 +5375,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>23-300</t>
+          <t>23-303</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -5446,7 +5446,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>27-227</t>
+          <t>27-230</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -5517,7 +5517,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>23-220</t>
+          <t>23-223</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -5588,7 +5588,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>25-121</t>
+          <t>25-124</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -5659,7 +5659,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>32-009</t>
+          <t>32-012</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -5730,7 +5730,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>32-011</t>
+          <t>32-014</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -5801,7 +5801,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>21-078</t>
+          <t>21-081</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -5872,7 +5872,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>21-101</t>
+          <t>21-104</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -5943,7 +5943,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>23-014</t>
+          <t>23-017</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -6014,7 +6014,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>27-013</t>
+          <t>27-016</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -6085,7 +6085,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>22-045</t>
+          <t>22-048</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -6156,7 +6156,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>31-109</t>
+          <t>31-112</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -6227,7 +6227,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>23-044</t>
+          <t>23-047</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -6298,7 +6298,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>29-062</t>
+          <t>29-065</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -6367,7 +6367,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>27-144</t>
+          <t>27-147</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -6438,7 +6438,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>35-075</t>
+          <t>35-078</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -6507,7 +6507,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>26-074</t>
+          <t>26-077</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -6578,7 +6578,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>19-098</t>
+          <t>19-101</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -6649,7 +6649,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>28-089</t>
+          <t>28-092</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -7096,7 +7096,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>27-321</t>
+          <t>27-324</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -7203,7 +7203,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>32-203</t>
+          <t>32-206</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -7310,7 +7310,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>22-241</t>
+          <t>22-244</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -7417,7 +7417,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>27-152</t>
+          <t>27-155</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -7524,7 +7524,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>31-247</t>
+          <t>31-250</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -7631,7 +7631,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>29-084</t>
+          <t>29-087</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -7738,7 +7738,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>30-157</t>
+          <t>30-160</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -7845,7 +7845,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>28-067</t>
+          <t>28-070</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -7952,7 +7952,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>27-229</t>
+          <t>27-232</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -8059,7 +8059,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>23-300</t>
+          <t>23-303</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -8166,7 +8166,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>27-227</t>
+          <t>27-230</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -8273,7 +8273,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>23-220</t>
+          <t>23-223</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -8380,7 +8380,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>25-121</t>
+          <t>25-124</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -8487,7 +8487,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>32-009</t>
+          <t>32-012</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -8594,7 +8594,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>32-011</t>
+          <t>32-014</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -8701,7 +8701,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>21-078</t>
+          <t>21-081</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -8808,7 +8808,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>21-101</t>
+          <t>21-104</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -8915,7 +8915,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>23-014</t>
+          <t>23-017</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -9022,7 +9022,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>27-013</t>
+          <t>27-016</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -9129,7 +9129,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>22-045</t>
+          <t>22-048</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -9236,7 +9236,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>31-109</t>
+          <t>31-112</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -9343,7 +9343,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>23-044</t>
+          <t>23-047</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -9450,7 +9450,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>29-062</t>
+          <t>29-065</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -9557,7 +9557,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>27-144</t>
+          <t>27-147</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -9664,7 +9664,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>35-075</t>
+          <t>35-078</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -9771,7 +9771,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>26-074</t>
+          <t>26-077</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -9878,7 +9878,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>19-098</t>
+          <t>19-101</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -9985,7 +9985,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>28-089</t>
+          <t>28-092</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -10092,7 +10092,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>18-054</t>
+          <t>18-057</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -10145,7 +10145,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>24-263</t>
+          <t>24-266</t>
         </is>
       </c>
       <c r="E33" t="n">
@@ -10198,7 +10198,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>18-173</t>
+          <t>18-176</t>
         </is>
       </c>
       <c r="E34" t="n">
@@ -10251,7 +10251,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>21-077</t>
+          <t>21-080</t>
         </is>
       </c>
       <c r="E35" t="n">
@@ -10304,7 +10304,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>19-064</t>
+          <t>19-067</t>
         </is>
       </c>
       <c r="E36" t="n">
@@ -10357,7 +10357,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>20-269</t>
+          <t>20-272</t>
         </is>
       </c>
       <c r="E37" t="n">
@@ -10783,7 +10783,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>27-321</t>
+          <t>27-324</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -10857,7 +10857,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>32-203</t>
+          <t>32-206</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -10921,7 +10921,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>22-241</t>
+          <t>22-244</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -10995,7 +10995,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>27-152</t>
+          <t>27-155</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -11069,7 +11069,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>31-247</t>
+          <t>31-250</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -11143,7 +11143,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>29-084</t>
+          <t>29-087</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -11217,7 +11217,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>30-157</t>
+          <t>30-160</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -11291,7 +11291,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>28-067</t>
+          <t>28-070</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -11365,7 +11365,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>27-229</t>
+          <t>27-232</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -11439,7 +11439,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>23-300</t>
+          <t>23-303</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -11513,7 +11513,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>27-227</t>
+          <t>27-230</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -11587,7 +11587,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>23-220</t>
+          <t>23-223</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -11661,7 +11661,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>25-121</t>
+          <t>25-124</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -11735,7 +11735,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>32-009</t>
+          <t>32-012</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -11809,7 +11809,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>32-011</t>
+          <t>32-014</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -11883,7 +11883,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>21-078</t>
+          <t>21-081</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -11957,7 +11957,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>21-101</t>
+          <t>21-104</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -12031,7 +12031,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>23-014</t>
+          <t>23-017</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -12105,7 +12105,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>27-013</t>
+          <t>27-016</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -12177,7 +12177,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>22-045</t>
+          <t>22-048</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -12249,7 +12249,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>31-109</t>
+          <t>31-112</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -12323,7 +12323,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>23-044</t>
+          <t>23-047</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -12395,7 +12395,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>29-062</t>
+          <t>29-065</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -12469,7 +12469,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>27-144</t>
+          <t>27-147</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -12543,7 +12543,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>35-075</t>
+          <t>35-078</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -12607,7 +12607,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>26-074</t>
+          <t>26-077</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -12681,7 +12681,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>19-098</t>
+          <t>19-101</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -12745,7 +12745,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>28-089</t>
+          <t>28-092</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -13169,7 +13169,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>27-321</t>
+          <t>27-324</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -13261,7 +13261,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>32-203</t>
+          <t>32-206</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -13353,7 +13353,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>22-241</t>
+          <t>22-244</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -13445,7 +13445,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>27-152</t>
+          <t>27-155</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -13537,7 +13537,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>31-247</t>
+          <t>31-250</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -13629,7 +13629,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>29-084</t>
+          <t>29-087</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -13721,7 +13721,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>30-157</t>
+          <t>30-160</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -13813,7 +13813,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>28-067</t>
+          <t>28-070</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -13905,7 +13905,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>27-229</t>
+          <t>27-232</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -13997,7 +13997,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>23-300</t>
+          <t>23-303</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -14089,7 +14089,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>27-227</t>
+          <t>27-230</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -14181,7 +14181,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>23-220</t>
+          <t>23-223</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -14273,7 +14273,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>25-121</t>
+          <t>25-124</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -14365,7 +14365,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>32-009</t>
+          <t>32-012</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -14457,7 +14457,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>32-011</t>
+          <t>32-014</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -14549,7 +14549,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>21-078</t>
+          <t>21-081</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -14641,7 +14641,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>21-101</t>
+          <t>21-104</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -14733,7 +14733,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>23-014</t>
+          <t>23-017</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -14825,7 +14825,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>27-013</t>
+          <t>27-016</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -14917,7 +14917,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>22-045</t>
+          <t>22-048</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -15009,7 +15009,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>31-109</t>
+          <t>31-112</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -15101,7 +15101,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>23-044</t>
+          <t>23-047</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -15193,7 +15193,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>29-062</t>
+          <t>29-065</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -15285,7 +15285,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>27-144</t>
+          <t>27-147</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -15377,7 +15377,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>35-075</t>
+          <t>35-078</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -15469,7 +15469,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>26-074</t>
+          <t>26-077</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -15561,7 +15561,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>19-098</t>
+          <t>19-101</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -15653,7 +15653,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>28-089</t>
+          <t>28-092</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -16080,7 +16080,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>27-321</t>
+          <t>27-324</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -16148,7 +16148,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>32-203</t>
+          <t>32-206</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -16216,7 +16216,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>22-241</t>
+          <t>22-244</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -16284,7 +16284,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>27-152</t>
+          <t>27-155</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -16352,7 +16352,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>31-247</t>
+          <t>31-250</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -16420,7 +16420,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>29-084</t>
+          <t>29-087</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -16488,7 +16488,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>30-157</t>
+          <t>30-160</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -16556,7 +16556,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>28-067</t>
+          <t>28-070</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -16624,7 +16624,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>27-229</t>
+          <t>27-232</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -16692,7 +16692,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>23-300</t>
+          <t>23-303</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -16760,7 +16760,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>27-227</t>
+          <t>27-230</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -16828,7 +16828,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>23-220</t>
+          <t>23-223</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -16896,7 +16896,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>25-121</t>
+          <t>25-124</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -16964,7 +16964,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>32-009</t>
+          <t>32-012</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -17032,7 +17032,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>32-011</t>
+          <t>32-014</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -17100,7 +17100,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>21-078</t>
+          <t>21-081</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -17168,7 +17168,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>21-101</t>
+          <t>21-104</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -17236,7 +17236,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>23-014</t>
+          <t>23-017</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -17304,7 +17304,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>27-013</t>
+          <t>27-016</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -17372,7 +17372,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>22-045</t>
+          <t>22-048</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -17440,7 +17440,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>31-109</t>
+          <t>31-112</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -17508,7 +17508,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>23-044</t>
+          <t>23-047</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -17576,7 +17576,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>29-062</t>
+          <t>29-065</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -17644,7 +17644,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>27-144</t>
+          <t>27-147</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -17712,7 +17712,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>35-075</t>
+          <t>35-078</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -17780,7 +17780,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>26-074</t>
+          <t>26-077</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -17848,7 +17848,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>19-098</t>
+          <t>19-101</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -17916,7 +17916,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>28-089</t>
+          <t>28-092</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -18279,7 +18279,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>27-321</t>
+          <t>27-324</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -18350,7 +18350,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>32-203</t>
+          <t>32-206</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -18421,7 +18421,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>22-241</t>
+          <t>22-244</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -18492,7 +18492,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>27-152</t>
+          <t>27-155</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -18563,7 +18563,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>31-247</t>
+          <t>31-250</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -18634,7 +18634,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>29-084</t>
+          <t>29-087</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -18705,7 +18705,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>30-157</t>
+          <t>30-160</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -18776,7 +18776,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>28-067</t>
+          <t>28-070</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -18847,7 +18847,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>27-229</t>
+          <t>27-232</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -18918,7 +18918,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>23-300</t>
+          <t>23-303</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -18989,7 +18989,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>27-227</t>
+          <t>27-230</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -19060,7 +19060,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>23-220</t>
+          <t>23-223</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -19131,7 +19131,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>25-121</t>
+          <t>25-124</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -19202,7 +19202,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>32-009</t>
+          <t>32-012</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -19273,7 +19273,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>32-011</t>
+          <t>32-014</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -19344,7 +19344,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>21-078</t>
+          <t>21-081</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -19415,7 +19415,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>21-101</t>
+          <t>21-104</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -19486,7 +19486,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>23-014</t>
+          <t>23-017</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -19557,7 +19557,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>27-013</t>
+          <t>27-016</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -19628,7 +19628,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>22-045</t>
+          <t>22-048</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -19699,7 +19699,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>31-109</t>
+          <t>31-112</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -19770,7 +19770,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>23-044</t>
+          <t>23-047</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -19841,7 +19841,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>29-062</t>
+          <t>29-065</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -19912,7 +19912,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>27-144</t>
+          <t>27-147</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -19983,7 +19983,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>35-075</t>
+          <t>35-078</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -20054,7 +20054,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>26-074</t>
+          <t>26-077</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -20125,7 +20125,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>19-098</t>
+          <t>19-101</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -20196,7 +20196,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>28-089</t>
+          <t>28-092</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -20565,7 +20565,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>27-321</t>
+          <t>27-324</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -20636,7 +20636,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>32-203</t>
+          <t>32-206</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -20707,7 +20707,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>22-241</t>
+          <t>22-244</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -20778,7 +20778,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>27-152</t>
+          <t>27-155</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -20849,7 +20849,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>31-247</t>
+          <t>31-250</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -20920,7 +20920,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>29-084</t>
+          <t>29-087</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -20991,7 +20991,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>30-157</t>
+          <t>30-160</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -21062,7 +21062,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>28-067</t>
+          <t>28-070</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -21133,7 +21133,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>27-229</t>
+          <t>27-232</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -21204,7 +21204,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>23-300</t>
+          <t>23-303</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -21275,7 +21275,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>27-227</t>
+          <t>27-230</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -21346,7 +21346,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>23-220</t>
+          <t>23-223</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -21417,7 +21417,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>25-121</t>
+          <t>25-124</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -21488,7 +21488,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>32-009</t>
+          <t>32-012</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -21559,7 +21559,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>32-011</t>
+          <t>32-014</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -21630,7 +21630,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>21-078</t>
+          <t>21-081</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -21701,7 +21701,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>21-101</t>
+          <t>21-104</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -21772,7 +21772,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>23-014</t>
+          <t>23-017</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -21843,7 +21843,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>27-013</t>
+          <t>27-016</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -21914,7 +21914,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>22-045</t>
+          <t>22-048</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -21985,7 +21985,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>31-109</t>
+          <t>31-112</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -22056,7 +22056,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>23-044</t>
+          <t>23-047</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -22127,7 +22127,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>29-062</t>
+          <t>29-065</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -22198,7 +22198,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>27-144</t>
+          <t>27-147</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -22269,7 +22269,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>35-075</t>
+          <t>35-078</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -22340,7 +22340,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>26-074</t>
+          <t>26-077</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -22411,7 +22411,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>19-098</t>
+          <t>19-101</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -22482,7 +22482,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>28-089</t>
+          <t>28-092</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -22890,7 +22890,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>27-321</t>
+          <t>27-324</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -22979,7 +22979,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>32-203</t>
+          <t>32-206</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -23068,7 +23068,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>22-241</t>
+          <t>22-244</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -23157,7 +23157,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>27-152</t>
+          <t>27-155</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -23246,7 +23246,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>31-247</t>
+          <t>31-250</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -23335,7 +23335,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>29-084</t>
+          <t>29-087</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -23424,7 +23424,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>30-157</t>
+          <t>30-160</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -23513,7 +23513,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>28-067</t>
+          <t>28-070</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -23602,7 +23602,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>27-229</t>
+          <t>27-232</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -23691,7 +23691,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>23-300</t>
+          <t>23-303</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -23780,7 +23780,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>27-227</t>
+          <t>27-230</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -23869,7 +23869,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>23-220</t>
+          <t>23-223</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -23958,7 +23958,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>25-121</t>
+          <t>25-124</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -24047,7 +24047,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>32-009</t>
+          <t>32-012</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -24136,7 +24136,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>32-011</t>
+          <t>32-014</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -24225,7 +24225,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>21-078</t>
+          <t>21-081</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -24314,7 +24314,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>21-101</t>
+          <t>21-104</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -24403,7 +24403,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>23-014</t>
+          <t>23-017</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -24492,7 +24492,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>27-013</t>
+          <t>27-016</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -24581,7 +24581,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>22-045</t>
+          <t>22-048</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -24670,7 +24670,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>31-109</t>
+          <t>31-112</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -24759,7 +24759,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>23-044</t>
+          <t>23-047</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -24848,7 +24848,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>29-062</t>
+          <t>29-065</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -24937,7 +24937,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>27-144</t>
+          <t>27-147</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -25026,7 +25026,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>35-075</t>
+          <t>35-078</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -25111,7 +25111,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>26-074</t>
+          <t>26-077</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -25200,7 +25200,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>19-098</t>
+          <t>19-101</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -25289,7 +25289,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>28-089</t>
+          <t>28-092</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -25792,7 +25792,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>27-321</t>
+          <t>27-324</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -25899,7 +25899,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>32-203</t>
+          <t>32-206</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -26006,7 +26006,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>22-241</t>
+          <t>22-244</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -26113,7 +26113,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>27-152</t>
+          <t>27-155</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -26220,7 +26220,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>31-247</t>
+          <t>31-250</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -26327,7 +26327,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>29-084</t>
+          <t>29-087</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -26434,7 +26434,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>30-157</t>
+          <t>30-160</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -26541,7 +26541,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>28-067</t>
+          <t>28-070</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -26648,7 +26648,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>27-229</t>
+          <t>27-232</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -26755,7 +26755,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>23-300</t>
+          <t>23-303</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -26862,7 +26862,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>27-227</t>
+          <t>27-230</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -26969,7 +26969,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>23-220</t>
+          <t>23-223</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -27076,7 +27076,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>25-121</t>
+          <t>25-124</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -27183,7 +27183,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>32-009</t>
+          <t>32-012</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -27290,7 +27290,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>32-011</t>
+          <t>32-014</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -27397,7 +27397,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>21-078</t>
+          <t>21-081</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -27504,7 +27504,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>21-101</t>
+          <t>21-104</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -27611,7 +27611,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>23-014</t>
+          <t>23-017</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -27718,7 +27718,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>27-013</t>
+          <t>27-016</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -27825,7 +27825,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>22-045</t>
+          <t>22-048</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -27932,7 +27932,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>31-109</t>
+          <t>31-112</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -28039,7 +28039,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>23-044</t>
+          <t>23-047</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -28146,7 +28146,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>29-062</t>
+          <t>29-065</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -28253,7 +28253,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>27-144</t>
+          <t>27-147</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -28360,7 +28360,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>35-075</t>
+          <t>35-078</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -28467,7 +28467,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>26-074</t>
+          <t>26-077</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -28574,7 +28574,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>19-098</t>
+          <t>19-101</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -28681,7 +28681,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>28-089</t>
+          <t>28-092</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -28788,7 +28788,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>18-054</t>
+          <t>18-057</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -28841,7 +28841,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>24-263</t>
+          <t>24-266</t>
         </is>
       </c>
       <c r="E33" t="n">
@@ -28894,7 +28894,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>18-173</t>
+          <t>18-176</t>
         </is>
       </c>
       <c r="E34" t="n">
@@ -28947,7 +28947,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>21-077</t>
+          <t>21-080</t>
         </is>
       </c>
       <c r="E35" t="n">
@@ -29000,7 +29000,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>19-064</t>
+          <t>19-067</t>
         </is>
       </c>
       <c r="E36" t="n">
@@ -29053,7 +29053,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>20-269</t>
+          <t>20-272</t>
         </is>
       </c>
       <c r="E37" t="n">
